--- a/ExportedFiles/excelFiles/start_monitoring_availability.xlsx
+++ b/ExportedFiles/excelFiles/start_monitoring_availability.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +613,70 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-09-13 19:56:16</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>start_monitoring_availability</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>October 2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Checked availability: No availability for the selected date.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>19:56:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-09-13 19:56:51</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>start_monitoring_availability</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>October 2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Checked availability: No availability for the selected date.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>19:56:51</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ExportedFiles/excelFiles/start_monitoring_availability.xlsx
+++ b/ExportedFiles/excelFiles/start_monitoring_availability.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,38 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-09-13 20:04:01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>start_monitoring_availability</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.opentable.com/r/bar-spero-washington/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Checked availability: No availability for the selected date.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>20:04:01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
